--- a/bin/package1/TestData.xlsx
+++ b/bin/package1/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14610" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,23 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Value of A</t>
   </si>
   <si>
     <t>Value of B</t>
+  </si>
+  <si>
+    <t>Value of Message</t>
+  </si>
+  <si>
+    <t>Welcome Raji Muthukumar</t>
   </si>
 </sst>
 </file>
@@ -353,28 +360,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2">
         <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
